--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -543,10 +543,10 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I2">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J2">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.275511</v>
+        <v>0.096887</v>
       </c>
       <c r="N2">
-        <v>0.826533</v>
+        <v>0.290661</v>
       </c>
       <c r="O2">
-        <v>0.03137247444583392</v>
+        <v>0.009776580706310958</v>
       </c>
       <c r="P2">
-        <v>0.03137247444583392</v>
+        <v>0.009776580706310958</v>
       </c>
       <c r="Q2">
-        <v>0.005781230986999999</v>
+        <v>0.002033044512333333</v>
       </c>
       <c r="R2">
-        <v>0.05203107888299999</v>
+        <v>0.018297400611</v>
       </c>
       <c r="S2">
-        <v>0.0009925326875890185</v>
+        <v>0.0003951927542929122</v>
       </c>
       <c r="T2">
-        <v>0.0009925326875890185</v>
+        <v>0.0003951927542929122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I3">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J3">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>13.745731</v>
       </c>
       <c r="O3">
-        <v>0.5217427429235215</v>
+        <v>0.4623470245018782</v>
       </c>
       <c r="P3">
-        <v>0.5217427429235215</v>
+        <v>0.4623470245018782</v>
       </c>
       <c r="Q3">
         <v>0.0961452791312222</v>
@@ -635,10 +635,10 @@
         <v>0.8653075121809999</v>
       </c>
       <c r="S3">
-        <v>0.01650640365515434</v>
+        <v>0.01868917155607208</v>
       </c>
       <c r="T3">
-        <v>0.01650640365515434</v>
+        <v>0.01868917155607208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I4">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J4">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.857787666666667</v>
+        <v>5.076459666666667</v>
       </c>
       <c r="N4">
-        <v>11.573363</v>
+        <v>15.229379</v>
       </c>
       <c r="O4">
-        <v>0.4392867979498214</v>
+        <v>0.51225053550527</v>
       </c>
       <c r="P4">
-        <v>0.4392867979498214</v>
+        <v>0.51225053550527</v>
       </c>
       <c r="Q4">
-        <v>0.08095053046811111</v>
+        <v>0.1065227374921111</v>
       </c>
       <c r="R4">
-        <v>0.728554774213</v>
+        <v>0.9587046374289999</v>
       </c>
       <c r="S4">
-        <v>0.01389774042032599</v>
+        <v>0.02070639072039468</v>
       </c>
       <c r="T4">
-        <v>0.01389774042032599</v>
+        <v>0.02070639072039468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I5">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J5">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06672499999999999</v>
+        <v>0.154854</v>
       </c>
       <c r="N5">
-        <v>0.200175</v>
+        <v>0.464562</v>
       </c>
       <c r="O5">
-        <v>0.007597984680823153</v>
+        <v>0.01562585928654078</v>
       </c>
       <c r="P5">
-        <v>0.007597984680823153</v>
+        <v>0.01562585928654078</v>
       </c>
       <c r="Q5">
-        <v>0.001400135158333333</v>
+        <v>0.003249404717999999</v>
       </c>
       <c r="R5">
-        <v>0.012601216425</v>
+        <v>0.029244642462</v>
       </c>
       <c r="S5">
-        <v>0.0002403778563446732</v>
+        <v>0.0006316345719577924</v>
       </c>
       <c r="T5">
-        <v>0.0002403778563446732</v>
+        <v>0.0006316345719577924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6422786666666668</v>
+        <v>0.4981263333333333</v>
       </c>
       <c r="H6">
-        <v>1.926836</v>
+        <v>1.494379</v>
       </c>
       <c r="I6">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="J6">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.275511</v>
+        <v>0.096887</v>
       </c>
       <c r="N6">
-        <v>0.826533</v>
+        <v>0.290661</v>
       </c>
       <c r="O6">
-        <v>0.03137247444583392</v>
+        <v>0.009776580706310958</v>
       </c>
       <c r="P6">
-        <v>0.03137247444583392</v>
+        <v>0.009776580706310958</v>
       </c>
       <c r="Q6">
-        <v>0.176954837732</v>
+        <v>0.04826196605766666</v>
       </c>
       <c r="R6">
-        <v>1.592593539588</v>
+        <v>0.434357694519</v>
       </c>
       <c r="S6">
-        <v>0.0303799417582449</v>
+        <v>0.009381387952018046</v>
       </c>
       <c r="T6">
-        <v>0.0303799417582449</v>
+        <v>0.009381387952018046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6422786666666668</v>
+        <v>0.4981263333333333</v>
       </c>
       <c r="H7">
-        <v>1.926836</v>
+        <v>1.494379</v>
       </c>
       <c r="I7">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="J7">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>13.745731</v>
       </c>
       <c r="O7">
-        <v>0.5217427429235215</v>
+        <v>0.4623470245018782</v>
       </c>
       <c r="P7">
-        <v>0.5217427429235215</v>
+        <v>0.4623470245018782</v>
       </c>
       <c r="Q7">
-        <v>2.942863259679556</v>
+        <v>2.282370194005444</v>
       </c>
       <c r="R7">
-        <v>26.485769337116</v>
+        <v>20.541331746049</v>
       </c>
       <c r="S7">
-        <v>0.5052363392683672</v>
+        <v>0.4436578529458061</v>
       </c>
       <c r="T7">
-        <v>0.5052363392683672</v>
+        <v>0.4436578529458061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6422786666666668</v>
+        <v>0.4981263333333333</v>
       </c>
       <c r="H8">
-        <v>1.926836</v>
+        <v>1.494379</v>
       </c>
       <c r="I8">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="J8">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.857787666666667</v>
+        <v>5.076459666666667</v>
       </c>
       <c r="N8">
-        <v>11.573363</v>
+        <v>15.229379</v>
       </c>
       <c r="O8">
-        <v>0.4392867979498214</v>
+        <v>0.51225053550527</v>
       </c>
       <c r="P8">
-        <v>0.4392867979498214</v>
+        <v>0.51225053550527</v>
       </c>
       <c r="Q8">
-        <v>2.477774718829779</v>
+        <v>2.528718240071222</v>
       </c>
       <c r="R8">
-        <v>22.299972469468</v>
+        <v>22.758464160641</v>
       </c>
       <c r="S8">
-        <v>0.4253890575294954</v>
+        <v>0.4915441447848753</v>
       </c>
       <c r="T8">
-        <v>0.4253890575294954</v>
+        <v>0.4915441447848753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6422786666666668</v>
+        <v>0.4981263333333333</v>
       </c>
       <c r="H9">
-        <v>1.926836</v>
+        <v>1.494379</v>
       </c>
       <c r="I9">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="J9">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.06672499999999999</v>
+        <v>0.154854</v>
       </c>
       <c r="N9">
-        <v>0.200175</v>
+        <v>0.464562</v>
       </c>
       <c r="O9">
-        <v>0.007597984680823153</v>
+        <v>0.01562585928654078</v>
       </c>
       <c r="P9">
-        <v>0.007597984680823153</v>
+        <v>0.01562585928654078</v>
       </c>
       <c r="Q9">
-        <v>0.04285604403333334</v>
+        <v>0.07713685522199999</v>
       </c>
       <c r="R9">
-        <v>0.3857043963</v>
+        <v>0.6942316969979999</v>
       </c>
       <c r="S9">
-        <v>0.00735760682447848</v>
+        <v>0.01499422471458299</v>
       </c>
       <c r="T9">
-        <v>0.00735760682447848</v>
+        <v>0.01499422471458299</v>
       </c>
     </row>
   </sheetData>
